--- a/Data/Dati.xlsx
+++ b/Data/Dati.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/albertocalabrese99/Desktop/SPORT EVENT IMPACT/Web App Sport Event Impact/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1583A4C8-C6B1-F84D-934A-D08995965107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A70781-174A-9249-9ACE-D620C0F10A04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16820" yWindow="2940" windowWidth="26840" windowHeight="29760" xr2:uid="{145529FC-DBED-B54F-8CF0-3008D3617E32}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1409" uniqueCount="136">
   <si>
     <t>ISO</t>
   </si>
@@ -436,6 +436,15 @@
   <si>
     <t>SG</t>
   </si>
+  <si>
+    <t>Impatto economico</t>
+  </si>
+  <si>
+    <t>Impatto ambientale</t>
+  </si>
+  <si>
+    <t>Impatto sociale</t>
+  </si>
 </sst>
 </file>
 
@@ -469,7 +478,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -563,6 +572,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -711,7 +726,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -992,46 +1007,14 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -2593,10 +2576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C2670DE-F3C5-1C40-9E8E-2CABB2A60F8D}">
-  <dimension ref="A1:M344"/>
+  <dimension ref="A1:P344"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2607,7 +2590,7 @@
     <col min="4" max="12" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="68" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2647,8 +2630,17 @@
       <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N1" s="102" t="s">
+        <v>133</v>
+      </c>
+      <c r="O1" s="102" t="s">
+        <v>134</v>
+      </c>
+      <c r="P1" s="102" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
@@ -2688,8 +2680,17 @@
       <c r="M2" s="40">
         <v>-1</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N2" s="9">
+        <v>1</v>
+      </c>
+      <c r="O2" s="10">
+        <v>0</v>
+      </c>
+      <c r="P2" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>15</v>
       </c>
@@ -2729,8 +2730,17 @@
       <c r="M3" s="41">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N3" s="12">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>2</v>
+      </c>
+      <c r="P3" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>16</v>
       </c>
@@ -2770,8 +2780,17 @@
       <c r="M4" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N4" s="12">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>2</v>
+      </c>
+      <c r="P4" s="13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>17</v>
       </c>
@@ -2811,8 +2830,17 @@
       <c r="M5" s="41">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N5" s="12">
+        <v>2</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>18</v>
       </c>
@@ -2852,8 +2880,17 @@
       <c r="M6" s="41">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N6" s="12">
+        <v>2</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>19</v>
       </c>
@@ -2893,8 +2930,17 @@
       <c r="M7" s="41">
         <v>-1</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="12">
+        <v>2</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7" s="13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>20</v>
       </c>
@@ -2934,8 +2980,17 @@
       <c r="M8" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="12">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>21</v>
       </c>
@@ -2975,8 +3030,17 @@
       <c r="M9" s="41">
         <v>-1</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="12">
+        <v>-1</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9" s="13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>22</v>
       </c>
@@ -3016,8 +3080,17 @@
       <c r="M10" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="12">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>23</v>
       </c>
@@ -3057,8 +3130,17 @@
       <c r="M11" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="12">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>-1</v>
+      </c>
+      <c r="P11" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>24</v>
       </c>
@@ -3098,8 +3180,17 @@
       <c r="M12" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>22</v>
       </c>
@@ -3139,8 +3230,17 @@
       <c r="M13" s="41">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="12">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>15</v>
       </c>
@@ -3180,8 +3280,17 @@
       <c r="M14" s="41">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="12">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>25</v>
       </c>
@@ -3221,8 +3330,17 @@
       <c r="M15" s="41">
         <v>-1</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="12">
+        <v>-1</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>26</v>
       </c>
@@ -3262,8 +3380,17 @@
       <c r="M16" s="41">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="12">
+        <v>2</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16" s="13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>27</v>
       </c>
@@ -3303,8 +3430,17 @@
       <c r="M17" s="41">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="12">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>28</v>
       </c>
@@ -3344,8 +3480,17 @@
       <c r="M18" s="41">
         <v>-1</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="12">
+        <v>-1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>17</v>
       </c>
@@ -3385,8 +3530,17 @@
       <c r="M19" s="41">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="12">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
         <v>29</v>
       </c>
@@ -3426,8 +3580,17 @@
       <c r="M20" s="42">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="12">
+        <v>2</v>
+      </c>
+      <c r="O20" t="s">
+        <v>34</v>
+      </c>
+      <c r="P20" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="20" t="s">
         <v>30</v>
       </c>
@@ -3467,8 +3630,17 @@
       <c r="M21" s="40">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="12">
+        <v>2</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="22" t="s">
         <v>16</v>
       </c>
@@ -3508,8 +3680,17 @@
       <c r="M22" s="41">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="12">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="22" t="s">
         <v>22</v>
       </c>
@@ -3549,8 +3730,17 @@
       <c r="M23" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="12">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>-1</v>
+      </c>
+      <c r="P23" s="13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="22" t="s">
         <v>32</v>
       </c>
@@ -3590,8 +3780,17 @@
       <c r="M24" s="41">
         <v>-1</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="12">
+        <v>2</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" s="13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="22" t="s">
         <v>29</v>
       </c>
@@ -3631,8 +3830,17 @@
       <c r="M25" s="41">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="12">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="22" t="s">
         <v>17</v>
       </c>
@@ -3672,8 +3880,17 @@
       <c r="M26" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="12">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="22" t="s">
         <v>32</v>
       </c>
@@ -3713,8 +3930,17 @@
       <c r="M27" s="41">
         <v>-1</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="12">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" s="13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="22" t="s">
         <v>22</v>
       </c>
@@ -3754,8 +3980,17 @@
       <c r="M28" s="41">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="12">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="22" t="s">
         <v>33</v>
       </c>
@@ -3795,8 +4030,17 @@
       <c r="M29" s="41" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="O29" t="s">
+        <v>34</v>
+      </c>
+      <c r="P29" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="22" t="s">
         <v>20</v>
       </c>
@@ -3836,8 +4080,17 @@
       <c r="M30" s="41">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="12">
+        <v>-1</v>
+      </c>
+      <c r="O30">
+        <v>1</v>
+      </c>
+      <c r="P30" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="22" t="s">
         <v>29</v>
       </c>
@@ -3877,8 +4130,17 @@
       <c r="M31" s="41">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="12">
+        <v>-1</v>
+      </c>
+      <c r="O31">
+        <v>1</v>
+      </c>
+      <c r="P31" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="22" t="s">
         <v>30</v>
       </c>
@@ -3918,8 +4180,17 @@
       <c r="M32" s="41">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="12">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="22" t="s">
         <v>17</v>
       </c>
@@ -3959,8 +4230,17 @@
       <c r="M33" s="41">
         <v>-1</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="12">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>-1</v>
+      </c>
+      <c r="P33" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="22" t="s">
         <v>22</v>
       </c>
@@ -4000,8 +4280,17 @@
       <c r="M34" s="41">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="12">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>1</v>
+      </c>
+      <c r="P34" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="22" t="s">
         <v>16</v>
       </c>
@@ -4041,8 +4330,17 @@
       <c r="M35" s="41">
         <v>-1</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="12">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>1</v>
+      </c>
+      <c r="P35" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="22" t="s">
         <v>20</v>
       </c>
@@ -4082,8 +4380,17 @@
       <c r="M36" s="41">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N36" s="12">
+        <v>-1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="22" t="s">
         <v>21</v>
       </c>
@@ -4123,8 +4430,17 @@
       <c r="M37" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N37" s="12">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" s="13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="22" t="s">
         <v>23</v>
       </c>
@@ -4164,8 +4480,17 @@
       <c r="M38" s="41">
         <v>-1</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="12">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>-1</v>
+      </c>
+      <c r="P38" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="22" t="s">
         <v>26</v>
       </c>
@@ -4205,8 +4530,17 @@
       <c r="M39" s="42">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="12">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>1</v>
+      </c>
+      <c r="P39" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" s="24" t="s">
         <v>35</v>
       </c>
@@ -4246,8 +4580,17 @@
       <c r="M40" s="40">
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="12">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>1</v>
+      </c>
+      <c r="P40" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" s="27" t="s">
         <v>27</v>
       </c>
@@ -4287,8 +4630,17 @@
       <c r="M41" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="12">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="27" t="s">
         <v>18</v>
       </c>
@@ -4328,8 +4680,17 @@
       <c r="M42" s="41">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="12">
+        <v>2</v>
+      </c>
+      <c r="O42">
+        <v>1</v>
+      </c>
+      <c r="P42" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" s="27" t="s">
         <v>19</v>
       </c>
@@ -4369,8 +4730,17 @@
       <c r="M43" s="41">
         <v>-1</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="12">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>1</v>
+      </c>
+      <c r="P43" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" s="27" t="s">
         <v>37</v>
       </c>
@@ -4410,8 +4780,17 @@
       <c r="M44" s="41">
         <v>2</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="12">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>1</v>
+      </c>
+      <c r="P44" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" s="27" t="s">
         <v>24</v>
       </c>
@@ -4451,8 +4830,17 @@
       <c r="M45" s="41">
         <v>-1</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="12">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>1</v>
+      </c>
+      <c r="P45" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" s="27" t="s">
         <v>18</v>
       </c>
@@ -4492,8 +4880,17 @@
       <c r="M46" s="41">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="12">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>1</v>
+      </c>
+      <c r="P46" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" s="27" t="s">
         <v>16</v>
       </c>
@@ -4533,8 +4930,17 @@
       <c r="M47" s="41">
         <v>-1</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="12">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>1</v>
+      </c>
+      <c r="P47" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" s="27" t="s">
         <v>22</v>
       </c>
@@ -4574,8 +4980,17 @@
       <c r="M48" s="41">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="12">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" s="27" t="s">
         <v>29</v>
       </c>
@@ -4615,8 +5030,17 @@
       <c r="M49" s="41">
         <v>2</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="12">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>1</v>
+      </c>
+      <c r="P49" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" s="27" t="s">
         <v>17</v>
       </c>
@@ -4656,8 +5080,17 @@
       <c r="M50" s="41">
         <v>-1</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="12">
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <v>-1</v>
+      </c>
+      <c r="P50" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" s="27" t="s">
         <v>23</v>
       </c>
@@ -4697,8 +5130,17 @@
       <c r="M51" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="12">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>-1</v>
+      </c>
+      <c r="P51" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" s="27" t="s">
         <v>19</v>
       </c>
@@ -4738,8 +5180,17 @@
       <c r="M52" s="41">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="12">
+        <v>1</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" s="27" t="s">
         <v>38</v>
       </c>
@@ -4779,8 +5230,17 @@
       <c r="M53" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="12">
+        <v>-1</v>
+      </c>
+      <c r="O53">
+        <v>1</v>
+      </c>
+      <c r="P53" s="13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" s="27" t="s">
         <v>28</v>
       </c>
@@ -4820,8 +5280,17 @@
       <c r="M54" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="12">
+        <v>1</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" s="27" t="s">
         <v>21</v>
       </c>
@@ -4861,8 +5330,17 @@
       <c r="M55" s="41">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="12">
+        <v>1</v>
+      </c>
+      <c r="O55">
+        <v>1</v>
+      </c>
+      <c r="P55" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" s="27" t="s">
         <v>39</v>
       </c>
@@ -4902,8 +5380,17 @@
       <c r="M56" s="42">
         <v>2</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N56" s="12">
+        <v>1</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="31" t="s">
         <v>16</v>
       </c>
@@ -4943,8 +5430,17 @@
       <c r="M57" s="40">
         <v>2</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N57" s="12">
+        <v>1</v>
+      </c>
+      <c r="O57">
+        <v>1</v>
+      </c>
+      <c r="P57" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="34" t="s">
         <v>22</v>
       </c>
@@ -4984,8 +5480,17 @@
       <c r="M58" s="41">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N58" s="12">
+        <v>1</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="34" t="s">
         <v>22</v>
       </c>
@@ -5025,8 +5530,17 @@
       <c r="M59" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N59" s="12">
+        <v>1</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="34" t="s">
         <v>19</v>
       </c>
@@ -5066,8 +5580,17 @@
       <c r="M60" s="41">
         <v>-1</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N60" s="12">
+        <v>1</v>
+      </c>
+      <c r="O60">
+        <v>1</v>
+      </c>
+      <c r="P60" s="13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="34" t="s">
         <v>20</v>
       </c>
@@ -5107,8 +5630,17 @@
       <c r="M61" s="41">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N61" s="12">
+        <v>1</v>
+      </c>
+      <c r="O61">
+        <v>1</v>
+      </c>
+      <c r="P61" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="34" t="s">
         <v>22</v>
       </c>
@@ -5148,8 +5680,17 @@
       <c r="M62" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N62" s="12">
+        <v>2</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="34" t="s">
         <v>17</v>
       </c>
@@ -5189,8 +5730,17 @@
       <c r="M63" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N63" s="12">
+        <v>1</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="34" t="s">
         <v>48</v>
       </c>
@@ -5230,8 +5780,17 @@
       <c r="M64" s="41">
         <v>-1</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N64" s="12">
+        <v>1</v>
+      </c>
+      <c r="O64">
+        <v>1</v>
+      </c>
+      <c r="P64" s="13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="34" t="s">
         <v>22</v>
       </c>
@@ -5271,8 +5830,17 @@
       <c r="M65" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N65" s="12">
+        <v>1</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="34" t="s">
         <v>17</v>
       </c>
@@ -5312,8 +5880,17 @@
       <c r="M66" s="41">
         <v>-1</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N66" s="12">
+        <v>1</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="34" t="s">
         <v>52</v>
       </c>
@@ -5353,8 +5930,17 @@
       <c r="M67" s="41">
         <v>-1</v>
       </c>
-    </row>
-    <row r="68" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N67" s="12">
+        <v>1</v>
+      </c>
+      <c r="O67">
+        <v>1</v>
+      </c>
+      <c r="P67" s="13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="34" t="s">
         <v>22</v>
       </c>
@@ -5394,8 +5980,17 @@
       <c r="M68" s="41">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N68" s="12">
+        <v>0</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="P68" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="34" t="s">
         <v>22</v>
       </c>
@@ -5435,8 +6030,17 @@
       <c r="M69" s="41">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N69" s="12">
+        <v>1</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+      <c r="P69" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="34" t="s">
         <v>17</v>
       </c>
@@ -5476,8 +6080,17 @@
       <c r="M70" s="41">
         <v>-1</v>
       </c>
-    </row>
-    <row r="71" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N70" s="12">
+        <v>1</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="P70" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="34" t="s">
         <v>52</v>
       </c>
@@ -5517,8 +6130,17 @@
       <c r="M71" s="41">
         <v>-1</v>
       </c>
-    </row>
-    <row r="72" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N71" s="12">
+        <v>0</v>
+      </c>
+      <c r="O71">
+        <v>1</v>
+      </c>
+      <c r="P71" s="13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="34" t="s">
         <v>20</v>
       </c>
@@ -5558,8 +6180,17 @@
       <c r="M72" s="41">
         <v>2</v>
       </c>
-    </row>
-    <row r="73" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N72" s="12">
+        <v>0</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+      <c r="P72" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="34" t="s">
         <v>15</v>
       </c>
@@ -5599,8 +6230,17 @@
       <c r="M73" s="41">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N73" s="12">
+        <v>0</v>
+      </c>
+      <c r="O73">
+        <v>1</v>
+      </c>
+      <c r="P73" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="34" t="s">
         <v>52</v>
       </c>
@@ -5640,8 +6280,17 @@
       <c r="M74" s="41">
         <v>-1</v>
       </c>
-    </row>
-    <row r="75" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N74" s="12">
+        <v>0</v>
+      </c>
+      <c r="O74">
+        <v>1</v>
+      </c>
+      <c r="P74" s="13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="34" t="s">
         <v>24</v>
       </c>
@@ -5681,8 +6330,17 @@
       <c r="M75" s="41">
         <v>2</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N75" s="12">
+        <v>0</v>
+      </c>
+      <c r="O75">
+        <v>2</v>
+      </c>
+      <c r="P75" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="34" t="s">
         <v>16</v>
       </c>
@@ -5722,8 +6380,17 @@
       <c r="M76" s="41">
         <v>-1</v>
       </c>
-    </row>
-    <row r="77" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N76" s="12">
+        <v>0</v>
+      </c>
+      <c r="O76">
+        <v>1</v>
+      </c>
+      <c r="P76" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="34" t="s">
         <v>23</v>
       </c>
@@ -5763,8 +6430,17 @@
       <c r="M77" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N77" s="12">
+        <v>1</v>
+      </c>
+      <c r="O77">
+        <v>-1</v>
+      </c>
+      <c r="P77" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="34" t="s">
         <v>62</v>
       </c>
@@ -5804,8 +6480,17 @@
       <c r="M78" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N78" s="12">
+        <v>0</v>
+      </c>
+      <c r="O78">
+        <v>0</v>
+      </c>
+      <c r="P78" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="34" t="s">
         <v>19</v>
       </c>
@@ -5845,8 +6530,17 @@
       <c r="M79" s="41">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N79" s="12">
+        <v>0</v>
+      </c>
+      <c r="O79">
+        <v>1</v>
+      </c>
+      <c r="P79" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="34" t="s">
         <v>17</v>
       </c>
@@ -5886,8 +6580,17 @@
       <c r="M80" s="41">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N80" s="12">
+        <v>0</v>
+      </c>
+      <c r="O80">
+        <v>0</v>
+      </c>
+      <c r="P80" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="34" t="s">
         <v>24</v>
       </c>
@@ -5927,8 +6630,17 @@
       <c r="M81" s="41">
         <v>2</v>
       </c>
-    </row>
-    <row r="82" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N81" s="12">
+        <v>0</v>
+      </c>
+      <c r="O81">
+        <v>1</v>
+      </c>
+      <c r="P81" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="34" t="s">
         <v>26</v>
       </c>
@@ -5968,8 +6680,17 @@
       <c r="M82" s="41">
         <v>2</v>
       </c>
-    </row>
-    <row r="83" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N82" s="12">
+        <v>1</v>
+      </c>
+      <c r="O82">
+        <v>1</v>
+      </c>
+      <c r="P82" s="13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="34" t="s">
         <v>23</v>
       </c>
@@ -6009,8 +6730,17 @@
       <c r="M83" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N83" s="12">
+        <v>1</v>
+      </c>
+      <c r="O83">
+        <v>-1</v>
+      </c>
+      <c r="P83" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="34" t="s">
         <v>16</v>
       </c>
@@ -6050,8 +6780,17 @@
       <c r="M84" s="41">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N84" s="12">
+        <v>1</v>
+      </c>
+      <c r="O84">
+        <v>0</v>
+      </c>
+      <c r="P84" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="34" t="s">
         <v>70</v>
       </c>
@@ -6091,8 +6830,17 @@
       <c r="M85" s="41">
         <v>2</v>
       </c>
-    </row>
-    <row r="86" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N85" s="12">
+        <v>1</v>
+      </c>
+      <c r="O85">
+        <v>2</v>
+      </c>
+      <c r="P85" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="34" t="s">
         <v>72</v>
       </c>
@@ -6132,8 +6880,17 @@
       <c r="M86" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N86" s="12">
+        <v>0</v>
+      </c>
+      <c r="O86">
+        <v>0</v>
+      </c>
+      <c r="P86" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="34" t="s">
         <v>37</v>
       </c>
@@ -6173,8 +6930,17 @@
       <c r="M87" s="41">
         <v>2</v>
       </c>
-    </row>
-    <row r="88" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N87" s="12">
+        <v>0</v>
+      </c>
+      <c r="O87">
+        <v>1</v>
+      </c>
+      <c r="P87" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="37" t="s">
         <v>17</v>
       </c>
@@ -6214,8 +6980,17 @@
       <c r="M88" s="42">
         <v>2</v>
       </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="12">
+        <v>1</v>
+      </c>
+      <c r="O88" t="s">
+        <v>34</v>
+      </c>
+      <c r="P88" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A89" s="34" t="s">
         <v>76</v>
       </c>
@@ -6255,8 +7030,17 @@
       <c r="M89" s="40">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="12">
+        <v>1</v>
+      </c>
+      <c r="O89">
+        <v>1</v>
+      </c>
+      <c r="P89" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>72</v>
       </c>
@@ -6296,8 +7080,17 @@
       <c r="M90" s="41">
         <v>2</v>
       </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="O90">
+        <v>-1</v>
+      </c>
+      <c r="P90" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>78</v>
       </c>
@@ -6337,8 +7130,17 @@
       <c r="M91" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="12">
+        <v>-1</v>
+      </c>
+      <c r="O91">
+        <v>2</v>
+      </c>
+      <c r="P91" s="13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>79</v>
       </c>
@@ -6378,8 +7180,17 @@
       <c r="M92" s="41">
         <v>-1</v>
       </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="12">
+        <v>1</v>
+      </c>
+      <c r="O92">
+        <v>0</v>
+      </c>
+      <c r="P92" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>80</v>
       </c>
@@ -6419,8 +7230,17 @@
       <c r="M93" s="41">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="12">
+        <v>2</v>
+      </c>
+      <c r="O93">
+        <v>1</v>
+      </c>
+      <c r="P93" s="13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>78</v>
       </c>
@@ -6460,8 +7280,17 @@
       <c r="M94" s="41">
         <v>2</v>
       </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="12">
+        <v>1</v>
+      </c>
+      <c r="O94">
+        <v>2</v>
+      </c>
+      <c r="P94" s="13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>76</v>
       </c>
@@ -6501,8 +7330,17 @@
       <c r="M95" s="41">
         <v>2</v>
       </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="12">
+        <v>1</v>
+      </c>
+      <c r="O95">
+        <v>2</v>
+      </c>
+      <c r="P95" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>81</v>
       </c>
@@ -6542,8 +7380,17 @@
       <c r="M96" s="41">
         <v>2</v>
       </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="12">
+        <v>2</v>
+      </c>
+      <c r="O96">
+        <v>1</v>
+      </c>
+      <c r="P96" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>82</v>
       </c>
@@ -6583,8 +7430,17 @@
       <c r="M97" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="12">
+        <v>2</v>
+      </c>
+      <c r="O97">
+        <v>0</v>
+      </c>
+      <c r="P97" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>78</v>
       </c>
@@ -6624,8 +7480,17 @@
       <c r="M98" s="41">
         <v>-1</v>
       </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="12">
+        <v>2</v>
+      </c>
+      <c r="O98">
+        <v>2</v>
+      </c>
+      <c r="P98" s="13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>79</v>
       </c>
@@ -6665,8 +7530,17 @@
       <c r="M99" s="41">
         <v>-1</v>
       </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="12">
+        <v>2</v>
+      </c>
+      <c r="O99">
+        <v>1</v>
+      </c>
+      <c r="P99" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>83</v>
       </c>
@@ -6706,8 +7580,17 @@
       <c r="M100" s="41">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="12">
+        <v>1</v>
+      </c>
+      <c r="O100">
+        <v>1</v>
+      </c>
+      <c r="P100" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>84</v>
       </c>
@@ -6747,8 +7630,17 @@
       <c r="M101" s="41">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="12">
+        <v>1</v>
+      </c>
+      <c r="O101">
+        <v>0</v>
+      </c>
+      <c r="P101" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>85</v>
       </c>
@@ -6788,8 +7680,17 @@
       <c r="M102" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N102" s="12">
+        <v>0</v>
+      </c>
+      <c r="O102">
+        <v>1</v>
+      </c>
+      <c r="P102" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>82</v>
       </c>
@@ -6829,8 +7730,17 @@
       <c r="M103" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N103" s="12">
+        <v>1</v>
+      </c>
+      <c r="O103">
+        <v>0</v>
+      </c>
+      <c r="P103" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>86</v>
       </c>
@@ -6870,8 +7780,17 @@
       <c r="M104" s="41">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N104" s="12">
+        <v>1</v>
+      </c>
+      <c r="O104">
+        <v>1</v>
+      </c>
+      <c r="P104" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>87</v>
       </c>
@@ -6911,8 +7830,17 @@
       <c r="M105" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N105" s="12">
+        <v>0</v>
+      </c>
+      <c r="O105">
+        <v>0</v>
+      </c>
+      <c r="P105" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>88</v>
       </c>
@@ -6952,8 +7880,17 @@
       <c r="M106" s="41">
         <v>-1</v>
       </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N106" s="12">
+        <v>0</v>
+      </c>
+      <c r="O106">
+        <v>0</v>
+      </c>
+      <c r="P106" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>80</v>
       </c>
@@ -6993,8 +7930,17 @@
       <c r="M107" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N107" s="12">
+        <v>0</v>
+      </c>
+      <c r="O107">
+        <v>0</v>
+      </c>
+      <c r="P107" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>38</v>
       </c>
@@ -7034,8 +7980,17 @@
       <c r="M108" s="41">
         <v>-1</v>
       </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N108" s="12">
+        <v>1</v>
+      </c>
+      <c r="O108">
+        <v>1</v>
+      </c>
+      <c r="P108" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>89</v>
       </c>
@@ -7075,8 +8030,17 @@
       <c r="M109" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N109" s="12">
+        <v>1</v>
+      </c>
+      <c r="O109">
+        <v>0</v>
+      </c>
+      <c r="P109" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>79</v>
       </c>
@@ -7116,8 +8080,17 @@
       <c r="M110" s="41">
         <v>2</v>
       </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N110" s="12">
+        <v>0</v>
+      </c>
+      <c r="O110">
+        <v>1</v>
+      </c>
+      <c r="P110" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>83</v>
       </c>
@@ -7157,8 +8130,17 @@
       <c r="M111" s="41">
         <v>2</v>
       </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N111" s="12">
+        <v>1</v>
+      </c>
+      <c r="O111">
+        <v>1</v>
+      </c>
+      <c r="P111" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>90</v>
       </c>
@@ -7198,8 +8180,17 @@
       <c r="M112" s="41">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N112" s="12">
+        <v>0</v>
+      </c>
+      <c r="O112">
+        <v>1</v>
+      </c>
+      <c r="P112" s="13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>80</v>
       </c>
@@ -7239,8 +8230,17 @@
       <c r="M113" s="41">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N113" s="12">
+        <v>0</v>
+      </c>
+      <c r="O113">
+        <v>1</v>
+      </c>
+      <c r="P113" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>82</v>
       </c>
@@ -7280,8 +8280,17 @@
       <c r="M114" s="41">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N114" s="12">
+        <v>1</v>
+      </c>
+      <c r="O114">
+        <v>0</v>
+      </c>
+      <c r="P114" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>79</v>
       </c>
@@ -7321,8 +8330,17 @@
       <c r="M115" s="41">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N115" s="12">
+        <v>1</v>
+      </c>
+      <c r="O115">
+        <v>0</v>
+      </c>
+      <c r="P115" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>91</v>
       </c>
@@ -7362,8 +8380,17 @@
       <c r="M116" s="41">
         <v>2</v>
       </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N116" s="12">
+        <v>-1</v>
+      </c>
+      <c r="O116">
+        <v>1</v>
+      </c>
+      <c r="P116" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>92</v>
       </c>
@@ -7403,8 +8430,17 @@
       <c r="M117" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N117" s="12">
+        <v>0</v>
+      </c>
+      <c r="O117">
+        <v>0</v>
+      </c>
+      <c r="P117" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>93</v>
       </c>
@@ -7444,8 +8480,17 @@
       <c r="M118" s="41">
         <v>-1</v>
       </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N118" s="12">
+        <v>1</v>
+      </c>
+      <c r="O118">
+        <v>-1</v>
+      </c>
+      <c r="P118" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>38</v>
       </c>
@@ -7485,8 +8530,17 @@
       <c r="M119" s="41">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N119" s="12">
+        <v>1</v>
+      </c>
+      <c r="O119">
+        <v>1</v>
+      </c>
+      <c r="P119" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>93</v>
       </c>
@@ -7526,8 +8580,17 @@
       <c r="M120" s="41">
         <v>-1</v>
       </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N120" s="12">
+        <v>1</v>
+      </c>
+      <c r="O120">
+        <v>-1</v>
+      </c>
+      <c r="P120" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>92</v>
       </c>
@@ -7567,8 +8630,17 @@
       <c r="M121" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N121" s="12">
+        <v>0</v>
+      </c>
+      <c r="O121">
+        <v>0</v>
+      </c>
+      <c r="P121" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>82</v>
       </c>
@@ -7608,8 +8680,17 @@
       <c r="M122" s="41">
         <v>-1</v>
       </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N122" s="12">
+        <v>2</v>
+      </c>
+      <c r="O122">
+        <v>0</v>
+      </c>
+      <c r="P122" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>81</v>
       </c>
@@ -7649,8 +8730,17 @@
       <c r="M123" s="41">
         <v>2</v>
       </c>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N123" s="12">
+        <v>1</v>
+      </c>
+      <c r="O123">
+        <v>1</v>
+      </c>
+      <c r="P123" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>85</v>
       </c>
@@ -7690,8 +8780,17 @@
       <c r="M124" s="41">
         <v>2</v>
       </c>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N124" s="12">
+        <v>1</v>
+      </c>
+      <c r="O124" t="s">
+        <v>34</v>
+      </c>
+      <c r="P124" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>94</v>
       </c>
@@ -7731,8 +8830,17 @@
       <c r="M125" s="41">
         <v>-1</v>
       </c>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N125" s="12">
+        <v>-1</v>
+      </c>
+      <c r="O125" t="s">
+        <v>34</v>
+      </c>
+      <c r="P125" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>95</v>
       </c>
@@ -7772,8 +8880,17 @@
       <c r="M126" s="40">
         <v>1</v>
       </c>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N126" s="12">
+        <v>1</v>
+      </c>
+      <c r="O126">
+        <v>0</v>
+      </c>
+      <c r="P126" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>97</v>
       </c>
@@ -7813,8 +8930,17 @@
       <c r="M127" s="41">
         <v>-1</v>
       </c>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N127" s="12">
+        <v>0</v>
+      </c>
+      <c r="O127">
+        <v>0</v>
+      </c>
+      <c r="P127" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>26</v>
       </c>
@@ -7854,8 +8980,17 @@
       <c r="M128" s="41">
         <v>2</v>
       </c>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N128" s="12">
+        <v>1</v>
+      </c>
+      <c r="O128">
+        <v>1</v>
+      </c>
+      <c r="P128" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>98</v>
       </c>
@@ -7895,8 +9030,17 @@
       <c r="M129" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N129" s="12">
+        <v>2</v>
+      </c>
+      <c r="O129">
+        <v>1</v>
+      </c>
+      <c r="P129" s="13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>99</v>
       </c>
@@ -7936,8 +9080,17 @@
       <c r="M130" s="41">
         <v>-1</v>
       </c>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N130" s="12">
+        <v>1</v>
+      </c>
+      <c r="O130">
+        <v>0</v>
+      </c>
+      <c r="P130" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>26</v>
       </c>
@@ -7977,8 +9130,17 @@
       <c r="M131" s="42">
         <v>2</v>
       </c>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N131" s="12">
+        <v>1</v>
+      </c>
+      <c r="O131">
+        <v>1</v>
+      </c>
+      <c r="P131" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>100</v>
       </c>
@@ -8018,8 +9180,17 @@
       <c r="M132" s="40">
         <v>-1</v>
       </c>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N132" s="12">
+        <v>-1</v>
+      </c>
+      <c r="O132">
+        <v>2</v>
+      </c>
+      <c r="P132" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>102</v>
       </c>
@@ -8059,8 +9230,17 @@
       <c r="M133" s="41">
         <v>2</v>
       </c>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N133" s="12">
+        <v>0</v>
+      </c>
+      <c r="O133">
+        <v>1</v>
+      </c>
+      <c r="P133" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>17</v>
       </c>
@@ -8100,8 +9280,17 @@
       <c r="M134" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N134" s="12">
+        <v>1</v>
+      </c>
+      <c r="O134">
+        <v>0</v>
+      </c>
+      <c r="P134" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>95</v>
       </c>
@@ -8141,8 +9330,17 @@
       <c r="M135" s="41">
         <v>2</v>
       </c>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N135" s="12">
+        <v>1</v>
+      </c>
+      <c r="O135">
+        <v>0</v>
+      </c>
+      <c r="P135" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>98</v>
       </c>
@@ -8182,8 +9380,17 @@
       <c r="M136" s="41">
         <v>2</v>
       </c>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N136" s="12">
+        <v>1</v>
+      </c>
+      <c r="O136">
+        <v>1</v>
+      </c>
+      <c r="P136" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>98</v>
       </c>
@@ -8223,8 +9430,17 @@
       <c r="M137" s="41">
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N137" s="12">
+        <v>1</v>
+      </c>
+      <c r="O137">
+        <v>1</v>
+      </c>
+      <c r="P137" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>103</v>
       </c>
@@ -8264,8 +9480,17 @@
       <c r="M138" s="41">
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N138" s="12">
+        <v>1</v>
+      </c>
+      <c r="O138">
+        <v>1</v>
+      </c>
+      <c r="P138" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>98</v>
       </c>
@@ -8305,8 +9530,17 @@
       <c r="M139" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N139" s="12">
+        <v>1</v>
+      </c>
+      <c r="O139">
+        <v>1</v>
+      </c>
+      <c r="P139" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>100</v>
       </c>
@@ -8346,8 +9580,17 @@
       <c r="M140" s="41">
         <v>2</v>
       </c>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N140" s="12">
+        <v>1</v>
+      </c>
+      <c r="O140">
+        <v>1</v>
+      </c>
+      <c r="P140" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>23</v>
       </c>
@@ -8387,8 +9630,17 @@
       <c r="M141" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N141" s="12">
+        <v>0</v>
+      </c>
+      <c r="O141">
+        <v>-1</v>
+      </c>
+      <c r="P141" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>26</v>
       </c>
@@ -8428,8 +9680,17 @@
       <c r="M142" s="41">
         <v>2</v>
       </c>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N142" s="12">
+        <v>1</v>
+      </c>
+      <c r="O142">
+        <v>1</v>
+      </c>
+      <c r="P142" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>17</v>
       </c>
@@ -8469,8 +9730,17 @@
       <c r="M143" s="41">
         <v>-1</v>
       </c>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N143" s="12">
+        <v>-1</v>
+      </c>
+      <c r="O143">
+        <v>-1</v>
+      </c>
+      <c r="P143" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>98</v>
       </c>
@@ -8510,8 +9780,17 @@
       <c r="M144" s="41">
         <v>-1</v>
       </c>
-    </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N144" s="12">
+        <v>0</v>
+      </c>
+      <c r="O144">
+        <v>1</v>
+      </c>
+      <c r="P144" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>23</v>
       </c>
@@ -8551,8 +9830,17 @@
       <c r="M145" s="41">
         <v>-1</v>
       </c>
-    </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N145" s="12">
+        <v>0</v>
+      </c>
+      <c r="O145">
+        <v>-1</v>
+      </c>
+      <c r="P145" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>39</v>
       </c>
@@ -8592,8 +9880,17 @@
       <c r="M146" s="41">
         <v>1</v>
       </c>
-    </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N146" s="12">
+        <v>1</v>
+      </c>
+      <c r="O146">
+        <v>0</v>
+      </c>
+      <c r="P146" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>26</v>
       </c>
@@ -8633,8 +9930,17 @@
       <c r="M147" s="41">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N147" s="12">
+        <v>-1</v>
+      </c>
+      <c r="O147">
+        <v>1</v>
+      </c>
+      <c r="P147" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>23</v>
       </c>
@@ -8674,8 +9980,17 @@
       <c r="M148" s="41">
         <v>-1</v>
       </c>
-    </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N148" s="12">
+        <v>1</v>
+      </c>
+      <c r="O148">
+        <v>-1</v>
+      </c>
+      <c r="P148" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>95</v>
       </c>
@@ -8715,8 +10030,17 @@
       <c r="M149" s="42">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N149" s="12">
+        <v>0</v>
+      </c>
+      <c r="O149">
+        <v>0</v>
+      </c>
+      <c r="P149" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>15</v>
       </c>
@@ -8756,8 +10080,17 @@
       <c r="M150" s="40">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N150" s="12">
+        <v>0</v>
+      </c>
+      <c r="O150">
+        <v>1</v>
+      </c>
+      <c r="P150" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>105</v>
       </c>
@@ -8797,8 +10130,17 @@
       <c r="M151" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N151" s="12">
+        <v>-1</v>
+      </c>
+      <c r="O151">
+        <v>0</v>
+      </c>
+      <c r="P151" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>27</v>
       </c>
@@ -8838,8 +10180,17 @@
       <c r="M152" s="41">
         <v>-1</v>
       </c>
-    </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N152" s="12">
+        <v>2</v>
+      </c>
+      <c r="O152">
+        <v>0</v>
+      </c>
+      <c r="P152" s="13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>106</v>
       </c>
@@ -8879,8 +10230,17 @@
       <c r="M153" s="41">
         <v>1</v>
       </c>
-    </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N153" s="12">
+        <v>1</v>
+      </c>
+      <c r="O153">
+        <v>1</v>
+      </c>
+      <c r="P153" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>20</v>
       </c>
@@ -8920,8 +10280,17 @@
       <c r="M154" s="41">
         <v>-1</v>
       </c>
-    </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N154" s="12">
+        <v>1</v>
+      </c>
+      <c r="O154">
+        <v>0</v>
+      </c>
+      <c r="P154" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>15</v>
       </c>
@@ -8961,8 +10330,17 @@
       <c r="M155" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N155" s="12">
+        <v>-1</v>
+      </c>
+      <c r="O155">
+        <v>1</v>
+      </c>
+      <c r="P155" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>27</v>
       </c>
@@ -9002,8 +10380,17 @@
       <c r="M156" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N156" s="12">
+        <v>0</v>
+      </c>
+      <c r="O156">
+        <v>0</v>
+      </c>
+      <c r="P156" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>106</v>
       </c>
@@ -9043,8 +10430,17 @@
       <c r="M157" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N157" s="12">
+        <v>0</v>
+      </c>
+      <c r="O157">
+        <v>1</v>
+      </c>
+      <c r="P157" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>20</v>
       </c>
@@ -9084,8 +10480,17 @@
       <c r="M158" s="41">
         <v>2</v>
       </c>
-    </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N158" s="12">
+        <v>0</v>
+      </c>
+      <c r="O158">
+        <v>0</v>
+      </c>
+      <c r="P158" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>107</v>
       </c>
@@ -9125,8 +10530,17 @@
       <c r="M159" s="41">
         <v>-1</v>
       </c>
-    </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N159" s="12">
+        <v>1</v>
+      </c>
+      <c r="O159">
+        <v>0</v>
+      </c>
+      <c r="P159" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>27</v>
       </c>
@@ -9166,8 +10580,17 @@
       <c r="M160" s="41">
         <v>2</v>
       </c>
-    </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N160" s="12">
+        <v>1</v>
+      </c>
+      <c r="O160">
+        <v>1</v>
+      </c>
+      <c r="P160" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>15</v>
       </c>
@@ -9207,8 +10630,17 @@
       <c r="M161" s="41">
         <v>1</v>
       </c>
-    </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N161" s="12">
+        <v>0</v>
+      </c>
+      <c r="O161">
+        <v>0</v>
+      </c>
+      <c r="P161" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>100</v>
       </c>
@@ -9248,8 +10680,17 @@
       <c r="M162" s="41">
         <v>-1</v>
       </c>
-    </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N162" s="12">
+        <v>0</v>
+      </c>
+      <c r="O162">
+        <v>1</v>
+      </c>
+      <c r="P162" s="13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>27</v>
       </c>
@@ -9289,8 +10730,17 @@
       <c r="M163" s="41">
         <v>2</v>
       </c>
-    </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N163" s="12">
+        <v>2</v>
+      </c>
+      <c r="O163">
+        <v>1</v>
+      </c>
+      <c r="P163" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>15</v>
       </c>
@@ -9330,8 +10780,17 @@
       <c r="M164" s="41">
         <v>1</v>
       </c>
-    </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N164" s="12">
+        <v>1</v>
+      </c>
+      <c r="O164">
+        <v>0</v>
+      </c>
+      <c r="P164" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>27</v>
       </c>
@@ -9371,8 +10830,17 @@
       <c r="M165" s="41">
         <v>2</v>
       </c>
-    </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N165" s="12">
+        <v>2</v>
+      </c>
+      <c r="O165">
+        <v>1</v>
+      </c>
+      <c r="P165" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>15</v>
       </c>
@@ -9412,8 +10880,17 @@
       <c r="M166" s="42">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N166" s="12">
+        <v>1</v>
+      </c>
+      <c r="O166" t="s">
+        <v>34</v>
+      </c>
+      <c r="P166" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="167" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>108</v>
       </c>
@@ -9453,8 +10930,17 @@
       <c r="M167" s="40">
         <v>-1</v>
       </c>
-    </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N167" s="12">
+        <v>-1</v>
+      </c>
+      <c r="O167">
+        <v>0</v>
+      </c>
+      <c r="P167" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>110</v>
       </c>
@@ -9494,8 +10980,17 @@
       <c r="M168" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N168" s="12">
+        <v>2</v>
+      </c>
+      <c r="O168">
+        <v>1</v>
+      </c>
+      <c r="P168" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>111</v>
       </c>
@@ -9535,8 +11030,17 @@
       <c r="M169" s="42">
         <v>2</v>
       </c>
-    </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N169" s="12">
+        <v>1</v>
+      </c>
+      <c r="O169">
+        <v>1</v>
+      </c>
+      <c r="P169" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>112</v>
       </c>
@@ -9576,8 +11080,17 @@
       <c r="M170" s="40">
         <v>2</v>
       </c>
-    </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N170" s="12">
+        <v>0</v>
+      </c>
+      <c r="O170">
+        <v>2</v>
+      </c>
+      <c r="P170" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>19</v>
       </c>
@@ -9617,8 +11130,17 @@
       <c r="M171" s="41">
         <v>-1</v>
       </c>
-    </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N171" s="12">
+        <v>0</v>
+      </c>
+      <c r="O171">
+        <v>1</v>
+      </c>
+      <c r="P171" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>19</v>
       </c>
@@ -9658,8 +11180,17 @@
       <c r="M172" s="41">
         <v>-1</v>
       </c>
-    </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N172" s="12">
+        <v>0</v>
+      </c>
+      <c r="O172">
+        <v>1</v>
+      </c>
+      <c r="P172" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>114</v>
       </c>
@@ -9699,8 +11230,17 @@
       <c r="M173" s="41">
         <v>1</v>
       </c>
-    </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N173" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="O173">
+        <v>1</v>
+      </c>
+      <c r="P173" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>48</v>
       </c>
@@ -9740,8 +11280,17 @@
       <c r="M174" s="41">
         <v>-1</v>
       </c>
-    </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N174" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="O174">
+        <v>1</v>
+      </c>
+      <c r="P174" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>24</v>
       </c>
@@ -9781,8 +11330,17 @@
       <c r="M175" s="41">
         <v>2</v>
       </c>
-    </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N175" s="12">
+        <v>2</v>
+      </c>
+      <c r="O175">
+        <v>2</v>
+      </c>
+      <c r="P175" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>111</v>
       </c>
@@ -9822,8 +11380,17 @@
       <c r="M176" s="41">
         <v>1</v>
       </c>
-    </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N176" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="O176">
+        <v>1</v>
+      </c>
+      <c r="P176" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>29</v>
       </c>
@@ -9863,8 +11430,17 @@
       <c r="M177" s="41">
         <v>2</v>
       </c>
-    </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N177" s="12">
+        <v>1</v>
+      </c>
+      <c r="O177">
+        <v>1</v>
+      </c>
+      <c r="P177" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>21</v>
       </c>
@@ -9904,8 +11480,17 @@
       <c r="M178" s="41">
         <v>-1</v>
       </c>
-    </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N178" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="O178">
+        <v>1</v>
+      </c>
+      <c r="P178" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>32</v>
       </c>
@@ -9945,8 +11530,17 @@
       <c r="M179" s="41">
         <v>1</v>
       </c>
-    </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N179" s="12">
+        <v>1</v>
+      </c>
+      <c r="O179">
+        <v>0</v>
+      </c>
+      <c r="P179" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>16</v>
       </c>
@@ -9986,8 +11580,17 @@
       <c r="M180" s="41">
         <v>2</v>
       </c>
-    </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N180" s="12">
+        <v>1</v>
+      </c>
+      <c r="O180">
+        <v>1</v>
+      </c>
+      <c r="P180" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>52</v>
       </c>
@@ -10027,8 +11630,17 @@
       <c r="M181" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N181" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="O181">
+        <v>0</v>
+      </c>
+      <c r="P181" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>13</v>
       </c>
@@ -10068,8 +11680,17 @@
       <c r="M182" s="41">
         <v>1</v>
       </c>
-    </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N182" s="12">
+        <v>2</v>
+      </c>
+      <c r="O182">
+        <v>0</v>
+      </c>
+      <c r="P182" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>28</v>
       </c>
@@ -10109,8 +11730,17 @@
       <c r="M183" s="41">
         <v>2</v>
       </c>
-    </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N183" s="12">
+        <v>1</v>
+      </c>
+      <c r="O183">
+        <v>1</v>
+      </c>
+      <c r="P183" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>48</v>
       </c>
@@ -10150,8 +11780,17 @@
       <c r="M184" s="41">
         <v>-1</v>
       </c>
-    </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N184" s="12">
+        <v>1</v>
+      </c>
+      <c r="O184">
+        <v>2</v>
+      </c>
+      <c r="P184" s="13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>17</v>
       </c>
@@ -10191,8 +11830,17 @@
       <c r="M185" s="41">
         <v>1</v>
       </c>
-    </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N185" s="12">
+        <v>2</v>
+      </c>
+      <c r="O185">
+        <v>0</v>
+      </c>
+      <c r="P185" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>16</v>
       </c>
@@ -10232,8 +11880,17 @@
       <c r="M186" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N186" s="12">
+        <v>1</v>
+      </c>
+      <c r="O186">
+        <v>1</v>
+      </c>
+      <c r="P186" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>21</v>
       </c>
@@ -10273,8 +11930,17 @@
       <c r="M187" s="41">
         <v>-1</v>
       </c>
-    </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N187" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="O187">
+        <v>1</v>
+      </c>
+      <c r="P187" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>16</v>
       </c>
@@ -10314,8 +11980,17 @@
       <c r="M188" s="41">
         <v>-1</v>
       </c>
-    </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N188" s="12">
+        <v>0</v>
+      </c>
+      <c r="O188">
+        <v>1</v>
+      </c>
+      <c r="P188" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>52</v>
       </c>
@@ -10355,8 +12030,17 @@
       <c r="M189" s="41">
         <v>-1</v>
       </c>
-    </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N189" s="12">
+        <v>1</v>
+      </c>
+      <c r="O189">
+        <v>1</v>
+      </c>
+      <c r="P189" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>18</v>
       </c>
@@ -10396,8 +12080,17 @@
       <c r="M190" s="41">
         <v>2</v>
       </c>
-    </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N190" s="12">
+        <v>1</v>
+      </c>
+      <c r="O190">
+        <v>1</v>
+      </c>
+      <c r="P190" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>114</v>
       </c>
@@ -10437,8 +12130,17 @@
       <c r="M191" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N191" s="12">
+        <v>1</v>
+      </c>
+      <c r="O191">
+        <v>1</v>
+      </c>
+      <c r="P191" s="13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>20</v>
       </c>
@@ -10478,8 +12180,17 @@
       <c r="M192" s="41">
         <v>1</v>
       </c>
-    </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N192" s="12">
+        <v>-1</v>
+      </c>
+      <c r="O192">
+        <v>0</v>
+      </c>
+      <c r="P192" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>17</v>
       </c>
@@ -10519,8 +12230,17 @@
       <c r="M193" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N193" s="12">
+        <v>1</v>
+      </c>
+      <c r="O193">
+        <v>0</v>
+      </c>
+      <c r="P193" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>115</v>
       </c>
@@ -10560,8 +12280,17 @@
       <c r="M194" s="41">
         <v>-1</v>
       </c>
-    </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N194" s="12">
+        <v>2</v>
+      </c>
+      <c r="O194">
+        <v>-1</v>
+      </c>
+      <c r="P194" s="13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>19</v>
       </c>
@@ -10601,8 +12330,17 @@
       <c r="M195" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N195" s="12">
+        <v>0</v>
+      </c>
+      <c r="O195">
+        <v>1</v>
+      </c>
+      <c r="P195" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>27</v>
       </c>
@@ -10642,8 +12380,17 @@
       <c r="M196" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N196" s="12">
+        <v>0</v>
+      </c>
+      <c r="O196">
+        <v>1</v>
+      </c>
+      <c r="P196" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>22</v>
       </c>
@@ -10683,8 +12430,17 @@
       <c r="M197" s="41">
         <v>2</v>
       </c>
-    </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N197" s="12">
+        <v>0</v>
+      </c>
+      <c r="O197">
+        <v>0</v>
+      </c>
+      <c r="P197" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>17</v>
       </c>
@@ -10724,8 +12480,17 @@
       <c r="M198" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N198" s="12">
+        <v>0</v>
+      </c>
+      <c r="O198">
+        <v>0</v>
+      </c>
+      <c r="P198" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>16</v>
       </c>
@@ -10765,8 +12530,17 @@
       <c r="M199" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N199" s="12">
+        <v>0</v>
+      </c>
+      <c r="O199">
+        <v>0</v>
+      </c>
+      <c r="P199" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>24</v>
       </c>
@@ -10806,8 +12580,17 @@
       <c r="M200" s="41">
         <v>2</v>
       </c>
-    </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N200" s="12">
+        <v>0</v>
+      </c>
+      <c r="O200">
+        <v>1</v>
+      </c>
+      <c r="P200" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>116</v>
       </c>
@@ -10847,8 +12630,17 @@
       <c r="M201" s="41">
         <v>1</v>
       </c>
-    </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N201" s="12">
+        <v>1</v>
+      </c>
+      <c r="O201">
+        <v>1</v>
+      </c>
+      <c r="P201" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>23</v>
       </c>
@@ -10888,8 +12680,17 @@
       <c r="M202" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N202" s="12">
+        <v>0</v>
+      </c>
+      <c r="O202">
+        <v>-1</v>
+      </c>
+      <c r="P202" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>117</v>
       </c>
@@ -10929,8 +12730,17 @@
       <c r="M203" s="41">
         <v>2</v>
       </c>
-    </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N203" s="12">
+        <v>1</v>
+      </c>
+      <c r="O203">
+        <v>1</v>
+      </c>
+      <c r="P203" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>98</v>
       </c>
@@ -10970,8 +12780,17 @@
       <c r="M204" s="41">
         <v>1</v>
       </c>
-    </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N204" s="12">
+        <v>1</v>
+      </c>
+      <c r="O204">
+        <v>1</v>
+      </c>
+      <c r="P204" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>118</v>
       </c>
@@ -11011,8 +12830,17 @@
       <c r="M205" s="41">
         <v>-1</v>
       </c>
-    </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N205" s="12">
+        <v>-1</v>
+      </c>
+      <c r="O205">
+        <v>-1</v>
+      </c>
+      <c r="P205" s="13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>26</v>
       </c>
@@ -11052,8 +12880,17 @@
       <c r="M206" s="41">
         <v>1</v>
       </c>
-    </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N206" s="12">
+        <v>2</v>
+      </c>
+      <c r="O206">
+        <v>1</v>
+      </c>
+      <c r="P206" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>21</v>
       </c>
@@ -11093,8 +12930,17 @@
       <c r="M207" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N207" s="12">
+        <v>1</v>
+      </c>
+      <c r="O207">
+        <v>1</v>
+      </c>
+      <c r="P207" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>23</v>
       </c>
@@ -11134,8 +12980,17 @@
       <c r="M208" s="41">
         <v>-1</v>
       </c>
-    </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N208" s="12">
+        <v>0</v>
+      </c>
+      <c r="O208">
+        <v>-1</v>
+      </c>
+      <c r="P208" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>26</v>
       </c>
@@ -11175,8 +13030,17 @@
       <c r="M209" s="41">
         <v>1</v>
       </c>
-    </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N209" s="12">
+        <v>1</v>
+      </c>
+      <c r="O209">
+        <v>1</v>
+      </c>
+      <c r="P209" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>16</v>
       </c>
@@ -11216,8 +13080,17 @@
       <c r="M210" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N210" s="12">
+        <v>1</v>
+      </c>
+      <c r="O210">
+        <v>0</v>
+      </c>
+      <c r="P210" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>116</v>
       </c>
@@ -11257,8 +13130,17 @@
       <c r="M211" s="41">
         <v>2</v>
       </c>
-    </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N211" s="12">
+        <v>1</v>
+      </c>
+      <c r="O211">
+        <v>1</v>
+      </c>
+      <c r="P211" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>19</v>
       </c>
@@ -11298,8 +13180,17 @@
       <c r="M212" s="42">
         <v>2</v>
       </c>
-    </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N212" s="12">
+        <v>1</v>
+      </c>
+      <c r="O212" t="s">
+        <v>34</v>
+      </c>
+      <c r="P212" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>82</v>
       </c>
@@ -11339,8 +13230,17 @@
       <c r="M213" s="40">
         <v>-1</v>
       </c>
-    </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N213" s="12">
+        <v>0</v>
+      </c>
+      <c r="O213">
+        <v>1</v>
+      </c>
+      <c r="P213" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>24</v>
       </c>
@@ -11380,8 +13280,17 @@
       <c r="M214" s="41">
         <v>2</v>
       </c>
-    </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N214" s="12">
+        <v>2</v>
+      </c>
+      <c r="O214">
+        <v>1</v>
+      </c>
+      <c r="P214" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>120</v>
       </c>
@@ -11421,8 +13330,17 @@
       <c r="M215" s="41">
         <v>-1</v>
       </c>
-    </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N215" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="O215">
+        <v>1</v>
+      </c>
+      <c r="P215" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>16</v>
       </c>
@@ -11462,8 +13380,17 @@
       <c r="M216" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N216" s="12">
+        <v>2</v>
+      </c>
+      <c r="O216">
+        <v>0</v>
+      </c>
+      <c r="P216" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>80</v>
       </c>
@@ -11503,8 +13430,17 @@
       <c r="M217" s="41">
         <v>2</v>
       </c>
-    </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N217" s="12">
+        <v>-1</v>
+      </c>
+      <c r="O217">
+        <v>1</v>
+      </c>
+      <c r="P217" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>117</v>
       </c>
@@ -11544,8 +13480,17 @@
       <c r="M218" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N218" s="12">
+        <v>1</v>
+      </c>
+      <c r="O218">
+        <v>1</v>
+      </c>
+      <c r="P218" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>87</v>
       </c>
@@ -11585,8 +13530,17 @@
       <c r="M219" s="41">
         <v>1</v>
       </c>
-    </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N219" s="12">
+        <v>0</v>
+      </c>
+      <c r="O219">
+        <v>1</v>
+      </c>
+      <c r="P219" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>115</v>
       </c>
@@ -11626,8 +13580,17 @@
       <c r="M220" s="41">
         <v>-1</v>
       </c>
-    </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N220" s="12">
+        <v>2</v>
+      </c>
+      <c r="O220">
+        <v>-1</v>
+      </c>
+      <c r="P220" s="13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>86</v>
       </c>
@@ -11667,8 +13630,17 @@
       <c r="M221" s="41">
         <v>2</v>
       </c>
-    </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N221" s="12">
+        <v>0</v>
+      </c>
+      <c r="O221">
+        <v>2</v>
+      </c>
+      <c r="P221" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>121</v>
       </c>
@@ -11708,8 +13680,17 @@
       <c r="M222" s="41">
         <v>1</v>
       </c>
-    </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N222" s="12">
+        <v>0</v>
+      </c>
+      <c r="O222">
+        <v>1</v>
+      </c>
+      <c r="P222" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>25</v>
       </c>
@@ -11749,8 +13730,17 @@
       <c r="M223" s="41">
         <v>-1</v>
       </c>
-    </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N223" s="12">
+        <v>1</v>
+      </c>
+      <c r="O223">
+        <v>0</v>
+      </c>
+      <c r="P223" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>29</v>
       </c>
@@ -11790,8 +13780,17 @@
       <c r="M224" s="41">
         <v>2</v>
       </c>
-    </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N224" s="12">
+        <v>0</v>
+      </c>
+      <c r="O224">
+        <v>0</v>
+      </c>
+      <c r="P224" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>16</v>
       </c>
@@ -11831,8 +13830,17 @@
       <c r="M225" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N225" s="12">
+        <v>1</v>
+      </c>
+      <c r="O225">
+        <v>0</v>
+      </c>
+      <c r="P225" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>80</v>
       </c>
@@ -11872,8 +13880,17 @@
       <c r="M226" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N226" s="12">
+        <v>-1</v>
+      </c>
+      <c r="O226">
+        <v>1</v>
+      </c>
+      <c r="P226" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>24</v>
       </c>
@@ -11913,8 +13930,17 @@
       <c r="M227" s="41">
         <v>1</v>
       </c>
-    </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N227" s="12">
+        <v>0</v>
+      </c>
+      <c r="O227">
+        <v>1</v>
+      </c>
+      <c r="P227" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>16</v>
       </c>
@@ -11954,8 +13980,17 @@
       <c r="M228" s="41">
         <v>-1</v>
       </c>
-    </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N228" s="12">
+        <v>0</v>
+      </c>
+      <c r="O228">
+        <v>1</v>
+      </c>
+      <c r="P228" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>117</v>
       </c>
@@ -11995,8 +14030,17 @@
       <c r="M229" s="41">
         <v>1</v>
       </c>
-    </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N229" s="12">
+        <v>1</v>
+      </c>
+      <c r="O229">
+        <v>0</v>
+      </c>
+      <c r="P229" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>24</v>
       </c>
@@ -12036,8 +14080,17 @@
       <c r="M230" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N230" s="12">
+        <v>1</v>
+      </c>
+      <c r="O230">
+        <v>0</v>
+      </c>
+      <c r="P230" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>87</v>
       </c>
@@ -12077,8 +14130,17 @@
       <c r="M231" s="41">
         <v>2</v>
       </c>
-    </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N231" s="12">
+        <v>0</v>
+      </c>
+      <c r="O231">
+        <v>0</v>
+      </c>
+      <c r="P231" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>16</v>
       </c>
@@ -12118,8 +14180,17 @@
       <c r="M232" s="42">
         <v>1</v>
       </c>
-    </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N232" s="12">
+        <v>1</v>
+      </c>
+      <c r="O232" t="s">
+        <v>34</v>
+      </c>
+      <c r="P232" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="233" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>22</v>
       </c>
@@ -12159,8 +14230,17 @@
       <c r="M233" s="40">
         <v>-1</v>
       </c>
-    </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N233" s="12">
+        <v>0</v>
+      </c>
+      <c r="O233">
+        <v>0</v>
+      </c>
+      <c r="P233" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>27</v>
       </c>
@@ -12200,8 +14280,17 @@
       <c r="M234" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N234" s="12">
+        <v>1</v>
+      </c>
+      <c r="O234">
+        <v>1</v>
+      </c>
+      <c r="P234" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>19</v>
       </c>
@@ -12241,8 +14330,17 @@
       <c r="M235" s="41">
         <v>-1</v>
       </c>
-    </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N235" s="12">
+        <v>1</v>
+      </c>
+      <c r="O235">
+        <v>1</v>
+      </c>
+      <c r="P235" s="13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>123</v>
       </c>
@@ -12282,8 +14380,17 @@
       <c r="M236" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N236" s="12">
+        <v>0</v>
+      </c>
+      <c r="O236">
+        <v>1</v>
+      </c>
+      <c r="P236" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>13</v>
       </c>
@@ -12323,8 +14430,17 @@
       <c r="M237" s="41">
         <v>1</v>
       </c>
-    </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N237" s="12">
+        <v>0</v>
+      </c>
+      <c r="O237">
+        <v>0</v>
+      </c>
+      <c r="P237" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>17</v>
       </c>
@@ -12364,8 +14480,17 @@
       <c r="M238" s="41">
         <v>-1</v>
       </c>
-    </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N238" s="12">
+        <v>0</v>
+      </c>
+      <c r="O238">
+        <v>0</v>
+      </c>
+      <c r="P238" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>19</v>
       </c>
@@ -12405,8 +14530,17 @@
       <c r="M239" s="41">
         <v>2</v>
       </c>
-    </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N239" s="12">
+        <v>0</v>
+      </c>
+      <c r="O239">
+        <v>1</v>
+      </c>
+      <c r="P239" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>26</v>
       </c>
@@ -12446,8 +14580,17 @@
       <c r="M240" s="41">
         <v>2</v>
       </c>
-    </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N240" s="12">
+        <v>2</v>
+      </c>
+      <c r="O240">
+        <v>2</v>
+      </c>
+      <c r="P240" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>124</v>
       </c>
@@ -12487,8 +14630,17 @@
       <c r="M241" s="14">
         <v>1</v>
       </c>
-    </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N241" s="12">
+        <v>-1</v>
+      </c>
+      <c r="O241">
+        <v>1</v>
+      </c>
+      <c r="P241" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>111</v>
       </c>
@@ -12528,8 +14680,17 @@
       <c r="M242" s="41">
         <v>1</v>
       </c>
-    </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N242" s="12">
+        <v>1</v>
+      </c>
+      <c r="O242">
+        <v>0</v>
+      </c>
+      <c r="P242" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>22</v>
       </c>
@@ -12569,8 +14730,17 @@
       <c r="M243" s="41">
         <v>2</v>
       </c>
-    </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N243" s="12">
+        <v>2</v>
+      </c>
+      <c r="O243">
+        <v>1</v>
+      </c>
+      <c r="P243" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>116</v>
       </c>
@@ -12610,8 +14780,17 @@
       <c r="M244" s="42">
         <v>0</v>
       </c>
-    </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N244" s="12">
+        <v>0</v>
+      </c>
+      <c r="O244">
+        <v>1</v>
+      </c>
+      <c r="P244" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>16</v>
       </c>
@@ -12651,8 +14830,17 @@
       <c r="M245" s="40">
         <v>2</v>
       </c>
-    </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N245" s="12">
+        <v>1</v>
+      </c>
+      <c r="O245">
+        <v>1</v>
+      </c>
+      <c r="P245" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>32</v>
       </c>
@@ -12692,8 +14880,17 @@
       <c r="M246" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N246" s="12">
+        <v>1</v>
+      </c>
+      <c r="O246">
+        <v>1</v>
+      </c>
+      <c r="P246" s="13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>22</v>
       </c>
@@ -12733,8 +14930,17 @@
       <c r="M247" s="41">
         <v>1</v>
       </c>
-    </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N247" s="12">
+        <v>0</v>
+      </c>
+      <c r="O247">
+        <v>0</v>
+      </c>
+      <c r="P247" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>29</v>
       </c>
@@ -12774,8 +14980,17 @@
       <c r="M248" s="41">
         <v>1</v>
       </c>
-    </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N248" s="12">
+        <v>2</v>
+      </c>
+      <c r="O248">
+        <v>1</v>
+      </c>
+      <c r="P248" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>32</v>
       </c>
@@ -12815,8 +15030,17 @@
       <c r="M249" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N249" s="12">
+        <v>2</v>
+      </c>
+      <c r="O249">
+        <v>0</v>
+      </c>
+      <c r="P249" s="13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>35</v>
       </c>
@@ -12856,8 +15080,17 @@
       <c r="M250" s="41">
         <v>2</v>
       </c>
-    </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N250" s="12">
+        <v>1</v>
+      </c>
+      <c r="O250">
+        <v>1</v>
+      </c>
+      <c r="P250" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>29</v>
       </c>
@@ -12897,8 +15130,17 @@
       <c r="M251" s="41">
         <v>1</v>
       </c>
-    </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N251" s="12">
+        <v>1</v>
+      </c>
+      <c r="O251">
+        <v>1</v>
+      </c>
+      <c r="P251" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>16</v>
       </c>
@@ -12938,8 +15180,17 @@
       <c r="M252" s="41">
         <v>-1</v>
       </c>
-    </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N252" s="12">
+        <v>1</v>
+      </c>
+      <c r="O252">
+        <v>1</v>
+      </c>
+      <c r="P252" s="13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>17</v>
       </c>
@@ -12979,8 +15230,17 @@
       <c r="M253" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N253" s="12">
+        <v>1</v>
+      </c>
+      <c r="O253">
+        <v>0</v>
+      </c>
+      <c r="P253" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>116</v>
       </c>
@@ -13020,8 +15280,17 @@
       <c r="M254" s="41">
         <v>-1</v>
       </c>
-    </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N254" s="12">
+        <v>2</v>
+      </c>
+      <c r="O254">
+        <v>0</v>
+      </c>
+      <c r="P254" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>32</v>
       </c>
@@ -13061,8 +15330,17 @@
       <c r="M255" s="41">
         <v>-1</v>
       </c>
-    </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N255" s="12">
+        <v>1</v>
+      </c>
+      <c r="O255">
+        <v>0</v>
+      </c>
+      <c r="P255" s="13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>19</v>
       </c>
@@ -13102,8 +15380,17 @@
       <c r="M256" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N256" s="12">
+        <v>0</v>
+      </c>
+      <c r="O256">
+        <v>2</v>
+      </c>
+      <c r="P256" s="13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>22</v>
       </c>
@@ -13143,8 +15430,17 @@
       <c r="M257" s="41">
         <v>1</v>
       </c>
-    </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N257" s="12">
+        <v>0</v>
+      </c>
+      <c r="O257">
+        <v>1</v>
+      </c>
+      <c r="P257" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>32</v>
       </c>
@@ -13184,8 +15480,17 @@
       <c r="M258" s="41">
         <v>-1</v>
       </c>
-    </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N258" s="12">
+        <v>1</v>
+      </c>
+      <c r="O258">
+        <v>0</v>
+      </c>
+      <c r="P258" s="13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>16</v>
       </c>
@@ -13225,8 +15530,17 @@
       <c r="M259" s="41">
         <v>-1</v>
       </c>
-    </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N259" s="12">
+        <v>1</v>
+      </c>
+      <c r="O259">
+        <v>1</v>
+      </c>
+      <c r="P259" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>116</v>
       </c>
@@ -13266,8 +15580,17 @@
       <c r="M260" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N260" s="12">
+        <v>0</v>
+      </c>
+      <c r="O260">
+        <v>0</v>
+      </c>
+      <c r="P260" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>22</v>
       </c>
@@ -13307,8 +15630,17 @@
       <c r="M261" s="41">
         <v>2</v>
       </c>
-    </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N261" s="12">
+        <v>1</v>
+      </c>
+      <c r="O261">
+        <v>1</v>
+      </c>
+      <c r="P261" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>32</v>
       </c>
@@ -13348,8 +15680,17 @@
       <c r="M262" s="41">
         <v>-1</v>
       </c>
-    </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N262" s="12">
+        <v>1</v>
+      </c>
+      <c r="O262">
+        <v>0</v>
+      </c>
+      <c r="P262" s="13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>17</v>
       </c>
@@ -13389,8 +15730,17 @@
       <c r="M263" s="41">
         <v>-1</v>
       </c>
-    </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N263" s="12">
+        <v>0</v>
+      </c>
+      <c r="O263">
+        <v>0</v>
+      </c>
+      <c r="P263" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>24</v>
       </c>
@@ -13430,8 +15780,17 @@
       <c r="M264" s="41">
         <v>2</v>
       </c>
-    </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N264" s="12">
+        <v>0</v>
+      </c>
+      <c r="O264">
+        <v>1</v>
+      </c>
+      <c r="P264" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="265" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>16</v>
       </c>
@@ -13471,8 +15830,17 @@
       <c r="M265" s="41">
         <v>1</v>
       </c>
-    </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N265" s="12">
+        <v>0</v>
+      </c>
+      <c r="O265">
+        <v>1</v>
+      </c>
+      <c r="P265" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>22</v>
       </c>
@@ -13512,8 +15880,17 @@
       <c r="M266" s="41">
         <v>2</v>
       </c>
-    </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N266" s="12">
+        <v>0</v>
+      </c>
+      <c r="O266">
+        <v>1</v>
+      </c>
+      <c r="P266" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="267" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>32</v>
       </c>
@@ -13553,8 +15930,17 @@
       <c r="M267" s="41">
         <v>-1</v>
       </c>
-    </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N267" s="12">
+        <v>1</v>
+      </c>
+      <c r="O267">
+        <v>0</v>
+      </c>
+      <c r="P267" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>116</v>
       </c>
@@ -13594,8 +15980,17 @@
       <c r="M268" s="41">
         <v>2</v>
       </c>
-    </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N268" s="12">
+        <v>0</v>
+      </c>
+      <c r="O268">
+        <v>0</v>
+      </c>
+      <c r="P268" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="269" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>16</v>
       </c>
@@ -13635,8 +16030,17 @@
       <c r="M269" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N269" s="12">
+        <v>0</v>
+      </c>
+      <c r="O269">
+        <v>1</v>
+      </c>
+      <c r="P269" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>116</v>
       </c>
@@ -13676,8 +16080,17 @@
       <c r="M270" s="41">
         <v>1</v>
       </c>
-    </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N270" s="12">
+        <v>0</v>
+      </c>
+      <c r="O270">
+        <v>1</v>
+      </c>
+      <c r="P270" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="271" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>29</v>
       </c>
@@ -13717,8 +16130,17 @@
       <c r="M271" s="41">
         <v>2</v>
       </c>
-    </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N271" s="12">
+        <v>0</v>
+      </c>
+      <c r="O271">
+        <v>2</v>
+      </c>
+      <c r="P271" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="272" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>19</v>
       </c>
@@ -13758,8 +16180,17 @@
       <c r="M272" s="41">
         <v>1</v>
       </c>
-    </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N272" s="12">
+        <v>0</v>
+      </c>
+      <c r="O272">
+        <v>1</v>
+      </c>
+      <c r="P272" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>32</v>
       </c>
@@ -13799,8 +16230,17 @@
       <c r="M273" s="41">
         <v>-1</v>
       </c>
-    </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N273" s="12">
+        <v>1</v>
+      </c>
+      <c r="O273">
+        <v>0</v>
+      </c>
+      <c r="P273" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>22</v>
       </c>
@@ -13840,8 +16280,17 @@
       <c r="M274" s="41">
         <v>2</v>
       </c>
-    </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N274" s="12">
+        <v>1</v>
+      </c>
+      <c r="O274">
+        <v>1</v>
+      </c>
+      <c r="P274" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>116</v>
       </c>
@@ -13881,8 +16330,17 @@
       <c r="M275" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N275" s="12">
+        <v>1</v>
+      </c>
+      <c r="O275">
+        <v>0</v>
+      </c>
+      <c r="P275" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="276" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>116</v>
       </c>
@@ -13922,8 +16380,17 @@
       <c r="M276" s="41">
         <v>1</v>
       </c>
-    </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N276" s="12">
+        <v>1</v>
+      </c>
+      <c r="O276">
+        <v>0</v>
+      </c>
+      <c r="P276" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>16</v>
       </c>
@@ -13963,8 +16430,17 @@
       <c r="M277" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N277" s="12">
+        <v>1</v>
+      </c>
+      <c r="O277">
+        <v>1</v>
+      </c>
+      <c r="P277" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>29</v>
       </c>
@@ -14004,8 +16480,17 @@
       <c r="M278" s="42">
         <v>2</v>
       </c>
-    </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N278" s="12">
+        <v>1</v>
+      </c>
+      <c r="O278">
+        <v>1</v>
+      </c>
+      <c r="P278" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>32</v>
       </c>
@@ -14045,8 +16530,17 @@
       <c r="M279" s="40">
         <v>0</v>
       </c>
-    </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N279" s="12">
+        <v>1</v>
+      </c>
+      <c r="O279">
+        <v>1</v>
+      </c>
+      <c r="P279" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>116</v>
       </c>
@@ -14086,8 +16580,17 @@
       <c r="M280" s="41">
         <v>-1</v>
       </c>
-    </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N280" s="12">
+        <v>0</v>
+      </c>
+      <c r="O280">
+        <v>0</v>
+      </c>
+      <c r="P280" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>33</v>
       </c>
@@ -14127,8 +16630,17 @@
       <c r="M281" s="41">
         <v>-1</v>
       </c>
-    </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N281" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="O281">
+        <v>-1</v>
+      </c>
+      <c r="P281" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>19</v>
       </c>
@@ -14168,8 +16680,17 @@
       <c r="M282" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N282" s="12">
+        <v>-1</v>
+      </c>
+      <c r="O282">
+        <v>1</v>
+      </c>
+      <c r="P282" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>32</v>
       </c>
@@ -14209,8 +16730,17 @@
       <c r="M283" s="41">
         <v>1</v>
       </c>
-    </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N283" s="12">
+        <v>1</v>
+      </c>
+      <c r="O283">
+        <v>0</v>
+      </c>
+      <c r="P283" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>29</v>
       </c>
@@ -14250,8 +16780,17 @@
       <c r="M284" s="41">
         <v>2</v>
       </c>
-    </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N284" s="12">
+        <v>2</v>
+      </c>
+      <c r="O284">
+        <v>1</v>
+      </c>
+      <c r="P284" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>116</v>
       </c>
@@ -14291,8 +16830,17 @@
       <c r="M285" s="41">
         <v>1</v>
       </c>
-    </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N285" s="12">
+        <v>1</v>
+      </c>
+      <c r="O285">
+        <v>0</v>
+      </c>
+      <c r="P285" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="286" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>127</v>
       </c>
@@ -14332,8 +16880,17 @@
       <c r="M286" s="41">
         <v>-1</v>
       </c>
-    </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N286" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="O286">
+        <v>-1</v>
+      </c>
+      <c r="P286" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>16</v>
       </c>
@@ -14373,8 +16930,17 @@
       <c r="M287" s="41">
         <v>1</v>
       </c>
-    </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N287" s="12">
+        <v>1</v>
+      </c>
+      <c r="O287">
+        <v>1</v>
+      </c>
+      <c r="P287" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>32</v>
       </c>
@@ -14414,8 +16980,17 @@
       <c r="M288" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N288" s="12">
+        <v>1</v>
+      </c>
+      <c r="O288">
+        <v>0</v>
+      </c>
+      <c r="P288" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>13</v>
       </c>
@@ -14455,8 +17030,17 @@
       <c r="M289" s="41">
         <v>1</v>
       </c>
-    </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N289" s="12">
+        <v>1</v>
+      </c>
+      <c r="O289">
+        <v>1</v>
+      </c>
+      <c r="P289" s="13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>22</v>
       </c>
@@ -14496,8 +17080,17 @@
       <c r="M290" s="41">
         <v>2</v>
       </c>
-    </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N290" s="12">
+        <v>1</v>
+      </c>
+      <c r="O290">
+        <v>0</v>
+      </c>
+      <c r="P290" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="291" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>16</v>
       </c>
@@ -14537,8 +17130,17 @@
       <c r="M291" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N291" s="12">
+        <v>1</v>
+      </c>
+      <c r="O291">
+        <v>1</v>
+      </c>
+      <c r="P291" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>127</v>
       </c>
@@ -14578,8 +17180,17 @@
       <c r="M292" s="41">
         <v>-1</v>
       </c>
-    </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N292" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="O292">
+        <v>-1</v>
+      </c>
+      <c r="P292" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>24</v>
       </c>
@@ -14619,8 +17230,17 @@
       <c r="M293" s="41">
         <v>2</v>
       </c>
-    </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N293" s="12">
+        <v>0</v>
+      </c>
+      <c r="O293">
+        <v>2</v>
+      </c>
+      <c r="P293" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>52</v>
       </c>
@@ -14660,8 +17280,17 @@
       <c r="M294" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N294" s="12">
+        <v>1</v>
+      </c>
+      <c r="O294">
+        <v>1</v>
+      </c>
+      <c r="P294" s="13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>16</v>
       </c>
@@ -14701,8 +17330,17 @@
       <c r="M295" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N295" s="12">
+        <v>1</v>
+      </c>
+      <c r="O295">
+        <v>0</v>
+      </c>
+      <c r="P295" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>127</v>
       </c>
@@ -14742,8 +17380,17 @@
       <c r="M296" s="41">
         <v>-1</v>
       </c>
-    </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N296" s="12">
+        <v>1</v>
+      </c>
+      <c r="O296">
+        <v>-1</v>
+      </c>
+      <c r="P296" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>52</v>
       </c>
@@ -14783,8 +17430,17 @@
       <c r="M297" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N297" s="12">
+        <v>-1</v>
+      </c>
+      <c r="O297">
+        <v>1</v>
+      </c>
+      <c r="P297" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>17</v>
       </c>
@@ -14824,8 +17480,17 @@
       <c r="M298" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N298" s="12">
+        <v>0</v>
+      </c>
+      <c r="O298">
+        <v>0</v>
+      </c>
+      <c r="P298" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="299" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>111</v>
       </c>
@@ -14865,8 +17530,17 @@
       <c r="M299" s="41">
         <v>1</v>
       </c>
-    </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N299" s="12">
+        <v>0</v>
+      </c>
+      <c r="O299">
+        <v>1</v>
+      </c>
+      <c r="P299" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>24</v>
       </c>
@@ -14906,8 +17580,17 @@
       <c r="M300" s="41">
         <v>2</v>
       </c>
-    </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N300" s="12">
+        <v>0</v>
+      </c>
+      <c r="O300">
+        <v>1</v>
+      </c>
+      <c r="P300" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="301" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>23</v>
       </c>
@@ -14947,8 +17630,17 @@
       <c r="M301" s="41">
         <v>1</v>
       </c>
-    </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N301" s="12">
+        <v>1</v>
+      </c>
+      <c r="O301">
+        <v>-1</v>
+      </c>
+      <c r="P301" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="302" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>128</v>
       </c>
@@ -14988,8 +17680,17 @@
       <c r="M302" s="41">
         <v>-1</v>
       </c>
-    </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N302" s="12">
+        <v>-1</v>
+      </c>
+      <c r="O302">
+        <v>0</v>
+      </c>
+      <c r="P302" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>111</v>
       </c>
@@ -15029,8 +17730,17 @@
       <c r="M303" s="41">
         <v>-1</v>
       </c>
-    </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N303" s="12">
+        <v>0</v>
+      </c>
+      <c r="O303">
+        <v>2</v>
+      </c>
+      <c r="P303" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>16</v>
       </c>
@@ -15070,8 +17780,17 @@
       <c r="M304" s="41">
         <v>1</v>
       </c>
-    </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N304" s="12">
+        <v>0</v>
+      </c>
+      <c r="O304">
+        <v>0</v>
+      </c>
+      <c r="P304" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="305" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>32</v>
       </c>
@@ -15111,8 +17830,17 @@
       <c r="M305" s="41">
         <v>-1</v>
       </c>
-    </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N305" s="12">
+        <v>0</v>
+      </c>
+      <c r="O305">
+        <v>0</v>
+      </c>
+      <c r="P305" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>16</v>
       </c>
@@ -15152,8 +17880,17 @@
       <c r="M306" s="41">
         <v>1</v>
       </c>
-    </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N306" s="12">
+        <v>0</v>
+      </c>
+      <c r="O306">
+        <v>0</v>
+      </c>
+      <c r="P306" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>116</v>
       </c>
@@ -15193,8 +17930,17 @@
       <c r="M307" s="41">
         <v>2</v>
       </c>
-    </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N307" s="12">
+        <v>1</v>
+      </c>
+      <c r="O307">
+        <v>2</v>
+      </c>
+      <c r="P307" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>117</v>
       </c>
@@ -15234,8 +17980,17 @@
       <c r="M308" s="41">
         <v>2</v>
       </c>
-    </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N308" s="12">
+        <v>0</v>
+      </c>
+      <c r="O308">
+        <v>1</v>
+      </c>
+      <c r="P308" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>16</v>
       </c>
@@ -15275,8 +18030,17 @@
       <c r="M309" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N309" s="12">
+        <v>1</v>
+      </c>
+      <c r="O309">
+        <v>0</v>
+      </c>
+      <c r="P309" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="310" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>24</v>
       </c>
@@ -15316,8 +18080,17 @@
       <c r="M310" s="41">
         <v>2</v>
       </c>
-    </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N310" s="12">
+        <v>1</v>
+      </c>
+      <c r="O310">
+        <v>1</v>
+      </c>
+      <c r="P310" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="311" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>128</v>
       </c>
@@ -15357,8 +18130,17 @@
       <c r="M311" s="41">
         <v>-1</v>
       </c>
-    </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N311" s="12">
+        <v>0</v>
+      </c>
+      <c r="O311">
+        <v>0</v>
+      </c>
+      <c r="P311" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>70</v>
       </c>
@@ -15398,8 +18180,17 @@
       <c r="M312" s="41">
         <v>2</v>
       </c>
-    </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N312" s="12">
+        <v>1</v>
+      </c>
+      <c r="O312">
+        <v>2</v>
+      </c>
+      <c r="P312" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>21</v>
       </c>
@@ -15439,8 +18230,17 @@
       <c r="M313" s="41">
         <v>1</v>
       </c>
-    </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N313" s="12">
+        <v>1</v>
+      </c>
+      <c r="O313">
+        <v>1</v>
+      </c>
+      <c r="P313" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>22</v>
       </c>
@@ -15480,8 +18280,17 @@
       <c r="M314" s="41">
         <v>2</v>
       </c>
-    </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N314" s="12">
+        <v>2</v>
+      </c>
+      <c r="O314">
+        <v>1</v>
+      </c>
+      <c r="P314" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="315" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>16</v>
       </c>
@@ -15521,8 +18330,17 @@
       <c r="M315" s="42">
         <v>0</v>
       </c>
-    </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N315" s="12">
+        <v>1</v>
+      </c>
+      <c r="O315" t="s">
+        <v>34</v>
+      </c>
+      <c r="P315" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>118</v>
       </c>
@@ -15562,8 +18380,17 @@
       <c r="M316" s="40">
         <v>-1</v>
       </c>
-    </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N316" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="O316">
+        <v>-1</v>
+      </c>
+      <c r="P316" s="13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>124</v>
       </c>
@@ -15603,8 +18430,17 @@
       <c r="M317" s="41">
         <v>1</v>
       </c>
-    </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N317" s="12">
+        <v>0</v>
+      </c>
+      <c r="O317">
+        <v>1</v>
+      </c>
+      <c r="P317" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>19</v>
       </c>
@@ -15644,8 +18480,17 @@
       <c r="M318" s="41">
         <v>-1</v>
       </c>
-    </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N318" s="12">
+        <v>0</v>
+      </c>
+      <c r="O318">
+        <v>1</v>
+      </c>
+      <c r="P318" s="13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>130</v>
       </c>
@@ -15685,8 +18530,17 @@
       <c r="M319" s="41">
         <v>2</v>
       </c>
-    </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N319" s="12">
+        <v>1</v>
+      </c>
+      <c r="O319">
+        <v>0</v>
+      </c>
+      <c r="P319" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>24</v>
       </c>
@@ -15726,8 +18580,17 @@
       <c r="M320" s="41">
         <v>1</v>
       </c>
-    </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N320" s="12">
+        <v>1</v>
+      </c>
+      <c r="O320">
+        <v>2</v>
+      </c>
+      <c r="P320" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>15</v>
       </c>
@@ -15767,8 +18630,17 @@
       <c r="M321" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N321" s="12">
+        <v>0</v>
+      </c>
+      <c r="O321">
+        <v>1</v>
+      </c>
+      <c r="P321" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="322" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>16</v>
       </c>
@@ -15808,8 +18680,17 @@
       <c r="M322" s="41">
         <v>-1</v>
       </c>
-    </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N322" s="12">
+        <v>0</v>
+      </c>
+      <c r="O322">
+        <v>0</v>
+      </c>
+      <c r="P322" s="13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>15</v>
       </c>
@@ -15849,8 +18730,17 @@
       <c r="M323" s="41">
         <v>2</v>
       </c>
-    </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N323" s="12">
+        <v>0</v>
+      </c>
+      <c r="O323">
+        <v>1</v>
+      </c>
+      <c r="P323" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="324" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>17</v>
       </c>
@@ -15890,8 +18780,17 @@
       <c r="M324" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N324" s="12">
+        <v>0</v>
+      </c>
+      <c r="O324">
+        <v>0</v>
+      </c>
+      <c r="P324" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>24</v>
       </c>
@@ -15931,8 +18830,17 @@
       <c r="M325" s="41">
         <v>2</v>
       </c>
-    </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N325" s="12">
+        <v>0</v>
+      </c>
+      <c r="O325">
+        <v>1</v>
+      </c>
+      <c r="P325" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>20</v>
       </c>
@@ -15972,8 +18880,17 @@
       <c r="M326" s="41">
         <v>1</v>
       </c>
-    </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N326" s="12">
+        <v>0</v>
+      </c>
+      <c r="O326">
+        <v>0</v>
+      </c>
+      <c r="P326" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>15</v>
       </c>
@@ -16013,8 +18930,17 @@
       <c r="M327" s="41">
         <v>2</v>
       </c>
-    </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N327" s="12">
+        <v>0</v>
+      </c>
+      <c r="O327">
+        <v>0</v>
+      </c>
+      <c r="P327" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="328" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>16</v>
       </c>
@@ -16054,8 +18980,17 @@
       <c r="M328" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N328" s="12">
+        <v>0</v>
+      </c>
+      <c r="O328">
+        <v>0</v>
+      </c>
+      <c r="P328" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>116</v>
       </c>
@@ -16095,8 +19030,17 @@
       <c r="M329" s="41">
         <v>2</v>
       </c>
-    </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N329" s="12">
+        <v>2</v>
+      </c>
+      <c r="O329">
+        <v>1</v>
+      </c>
+      <c r="P329" s="13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>24</v>
       </c>
@@ -16136,8 +19080,17 @@
       <c r="M330" s="41">
         <v>1</v>
       </c>
-    </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N330" s="12">
+        <v>1</v>
+      </c>
+      <c r="O330">
+        <v>1</v>
+      </c>
+      <c r="P330" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="331" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>21</v>
       </c>
@@ -16177,8 +19130,17 @@
       <c r="M331" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N331" s="12">
+        <v>1</v>
+      </c>
+      <c r="O331">
+        <v>1</v>
+      </c>
+      <c r="P331" s="13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>48</v>
       </c>
@@ -16218,8 +19180,17 @@
       <c r="M332" s="41">
         <v>-1</v>
       </c>
-    </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N332" s="12">
+        <v>1</v>
+      </c>
+      <c r="O332">
+        <v>1</v>
+      </c>
+      <c r="P332" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>23</v>
       </c>
@@ -16259,8 +19230,17 @@
       <c r="M333" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N333" s="12">
+        <v>1</v>
+      </c>
+      <c r="O333">
+        <v>-1</v>
+      </c>
+      <c r="P333" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="334" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>48</v>
       </c>
@@ -16300,8 +19280,17 @@
       <c r="M334" s="41">
         <v>-1</v>
       </c>
-    </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N334" s="12">
+        <v>1</v>
+      </c>
+      <c r="O334">
+        <v>0</v>
+      </c>
+      <c r="P334" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>17</v>
       </c>
@@ -16341,8 +19330,17 @@
       <c r="M335" s="41">
         <v>1</v>
       </c>
-    </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N335" s="12">
+        <v>2</v>
+      </c>
+      <c r="O335">
+        <v>-1</v>
+      </c>
+      <c r="P335" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>39</v>
       </c>
@@ -16382,8 +19380,17 @@
       <c r="M336" s="41">
         <v>2</v>
       </c>
-    </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N336" s="12">
+        <v>1</v>
+      </c>
+      <c r="O336" t="s">
+        <v>34</v>
+      </c>
+      <c r="P336" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="337" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>21</v>
       </c>
@@ -16423,8 +19430,17 @@
       <c r="M337" s="41">
         <v>-1</v>
       </c>
-    </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N337" s="12">
+        <v>1</v>
+      </c>
+      <c r="O337" t="s">
+        <v>34</v>
+      </c>
+      <c r="P337" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>21</v>
       </c>
@@ -16464,8 +19480,17 @@
       <c r="M338" s="40">
         <v>-1</v>
       </c>
-    </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N338" s="12">
+        <v>0</v>
+      </c>
+      <c r="O338">
+        <v>1</v>
+      </c>
+      <c r="P338" s="13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>132</v>
       </c>
@@ -16505,8 +19530,17 @@
       <c r="M339" s="41">
         <v>1</v>
       </c>
-    </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N339" s="12">
+        <v>0</v>
+      </c>
+      <c r="O339">
+        <v>0</v>
+      </c>
+      <c r="P339" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="340" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>32</v>
       </c>
@@ -16546,8 +19580,17 @@
       <c r="M340" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N340" s="12">
+        <v>1</v>
+      </c>
+      <c r="O340">
+        <v>0</v>
+      </c>
+      <c r="P340" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>26</v>
       </c>
@@ -16587,8 +19630,17 @@
       <c r="M341" s="41">
         <v>2</v>
       </c>
-    </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N341" s="12">
+        <v>1</v>
+      </c>
+      <c r="O341">
+        <v>1</v>
+      </c>
+      <c r="P341" s="13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>30</v>
       </c>
@@ -16628,8 +19680,17 @@
       <c r="M342" s="41">
         <v>0</v>
       </c>
-    </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N342" s="12">
+        <v>1</v>
+      </c>
+      <c r="O342">
+        <v>0</v>
+      </c>
+      <c r="P342" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>37</v>
       </c>
@@ -16669,8 +19730,17 @@
       <c r="M343" s="41">
         <v>1</v>
       </c>
-    </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N343" s="12">
+        <v>-1</v>
+      </c>
+      <c r="O343">
+        <v>1</v>
+      </c>
+      <c r="P343" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>116</v>
       </c>
@@ -16710,36 +19780,25 @@
       <c r="M344" s="42">
         <v>-1</v>
       </c>
+      <c r="N344" s="17">
+        <v>1</v>
+      </c>
+      <c r="O344" s="18">
+        <v>0</v>
+      </c>
+      <c r="P344" s="19">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B40:C56">
-    <cfRule type="containsBlanks" dxfId="5" priority="6">
+    <cfRule type="containsBlanks" dxfId="1" priority="6">
       <formula>LEN(TRIM(B40))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C57:C232">
-    <cfRule type="containsBlanks" dxfId="4" priority="5">
+  <conditionalFormatting sqref="C57:C337">
+    <cfRule type="containsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(C57))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C233:C244">
-    <cfRule type="containsBlanks" dxfId="3" priority="4">
-      <formula>LEN(TRIM(C233))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C245:C278">
-    <cfRule type="containsBlanks" dxfId="2" priority="3">
-      <formula>LEN(TRIM(C245))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C279:C315">
-    <cfRule type="containsBlanks" dxfId="1" priority="2">
-      <formula>LEN(TRIM(C279))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C316:C337">
-    <cfRule type="containsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(C316))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
